--- a/screens.xlsx
+++ b/screens.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>screen w</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>b/h</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -126,9 +135,19 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10015507436570428"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.7012130358705162"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -143,7 +162,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$16:$C$22</c:f>
               <c:numCache>
@@ -162,18 +181,18 @@
                   <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$D$16:$D$22</c:f>
               <c:numCache>
@@ -191,12 +210,12 @@
                 <c:pt idx="3">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -212,7 +231,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$16:$C$22</c:f>
               <c:numCache>
@@ -231,18 +250,18 @@
                   <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$E$16:$E$22</c:f>
               <c:numCache>
@@ -260,12 +279,12 @@
                 <c:pt idx="3">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -281,7 +300,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$16:$C$22</c:f>
               <c:numCache>
@@ -300,18 +319,18 @@
                   <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$F$16:$F$22</c:f>
               <c:numCache>
@@ -330,17 +349,17 @@
                   <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -356,7 +375,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$16:$C$22</c:f>
               <c:numCache>
@@ -375,18 +394,18 @@
                   <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$G$16:$G$22</c:f>
               <c:numCache>
@@ -405,17 +424,17 @@
                   <c:v>728.32980972515861</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>611.70212765957444</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>661.55321188878236</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>611.70212765957444</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -431,7 +450,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$16:$C$22</c:f>
               <c:numCache>
@@ -450,18 +469,18 @@
                   <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$H$16:$H$22</c:f>
               <c:numCache>
@@ -479,33 +498,30 @@
                 <c:pt idx="3">
                   <c:v>966.17336152219866</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>967.19858156028374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="54440704"/>
-        <c:axId val="54442240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="54440704"/>
+        <c:axId val="194615168"/>
+        <c:axId val="183336960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="194615168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54442240"/>
+        <c:crossAx val="183336960"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="54442240"/>
+        <c:axId val="183336960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,9 +529,9 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54440704"/>
+        <c:crossAx val="194615168"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -526,7 +542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -536,16 +552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -852,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:R22"/>
+  <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -927,15 +943,15 @@
         <v>253</v>
       </c>
       <c r="I2">
-        <f>G2-F2</f>
+        <f t="shared" ref="I2:J8" si="0">G2-F2</f>
         <v>107</v>
       </c>
       <c r="J2">
-        <f>H2-G2</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="K2" s="1">
-        <f>I2/B2</f>
+        <f t="shared" ref="K2:K8" si="1">I2/B2</f>
         <v>0.11915367483296214</v>
       </c>
       <c r="L2">
@@ -945,23 +961,23 @@
         <v>590</v>
       </c>
       <c r="N2">
-        <f>M2-L2</f>
+        <f t="shared" ref="N2:N8" si="2">M2-L2</f>
         <v>142</v>
       </c>
       <c r="O2">
-        <f>C2-M2</f>
+        <f t="shared" ref="O2:O8" si="3">C2-M2</f>
         <v>24</v>
       </c>
       <c r="P2">
-        <f>C2-L2</f>
+        <f t="shared" ref="P2:P8" si="4">C2-L2</f>
         <v>166</v>
       </c>
       <c r="Q2">
-        <f>L2/C2</f>
+        <f t="shared" ref="Q2:Q8" si="5">L2/C2</f>
         <v>0.72964169381107491</v>
       </c>
       <c r="R2">
-        <f>M2/C2</f>
+        <f t="shared" ref="R2:R8" si="6">M2/C2</f>
         <v>0.96091205211726383</v>
       </c>
     </row>
@@ -982,15 +998,15 @@
         <v>253</v>
       </c>
       <c r="I3">
-        <f>G3-F3</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="J3">
-        <f>H3-G3</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="K3" s="1">
-        <f>I3/B3</f>
+        <f t="shared" si="1"/>
         <v>0.11915367483296214</v>
       </c>
       <c r="L3">
@@ -1000,23 +1016,23 @@
         <v>803</v>
       </c>
       <c r="N3">
-        <f>M3-L3</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="O3">
-        <f>C3-M3</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="P3">
-        <f>C3-L3</f>
+        <f t="shared" si="4"/>
         <v>166</v>
       </c>
       <c r="Q3">
-        <f>L3/C3</f>
+        <f t="shared" si="5"/>
         <v>0.80048076923076927</v>
       </c>
       <c r="R3">
-        <f>M3/C3</f>
+        <f t="shared" si="6"/>
         <v>0.96514423076923073</v>
       </c>
     </row>
@@ -1037,15 +1053,15 @@
         <v>357</v>
       </c>
       <c r="I4">
-        <f>G4-F4</f>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
       <c r="J4">
-        <f>H4-G4</f>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
       <c r="K4" s="1">
-        <f>I4/B4</f>
+        <f t="shared" si="1"/>
         <v>0.12373540856031129</v>
       </c>
       <c r="L4">
@@ -1055,23 +1071,23 @@
         <v>853</v>
       </c>
       <c r="N4">
-        <f>M4-L4</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="O4">
-        <f>C4-M4</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="P4">
-        <f>C4-L4</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="Q4">
-        <f>L4/C4</f>
+        <f t="shared" si="5"/>
         <v>0.77941176470588236</v>
       </c>
       <c r="R4">
-        <f>M4/C4</f>
+        <f t="shared" si="6"/>
         <v>0.96493212669683259</v>
       </c>
     </row>
@@ -1092,15 +1108,15 @@
         <v>253</v>
       </c>
       <c r="I5">
-        <f>G5-F5</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="J5">
-        <f>H5-G5</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="K5" s="1">
-        <f>I5/B5</f>
+        <f t="shared" si="1"/>
         <v>0.11915367483296214</v>
       </c>
       <c r="L5">
@@ -1110,131 +1126,131 @@
         <v>914</v>
       </c>
       <c r="N5">
-        <f>M5-L5</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="O5">
-        <f>C5-M5</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="P5">
-        <f>C5-L5</f>
+        <f t="shared" si="4"/>
         <v>257</v>
       </c>
       <c r="Q5">
-        <f>L5/C5</f>
+        <f t="shared" si="5"/>
         <v>0.72832980972515859</v>
       </c>
       <c r="R5">
-        <f>M5/C5</f>
+        <f t="shared" si="6"/>
         <v>0.96617336152219868</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="B6">
-        <v>1286</v>
+        <v>1881</v>
       </c>
       <c r="C6">
-        <v>1043</v>
+        <v>1128</v>
       </c>
       <c r="F6">
         <v>39</v>
       </c>
       <c r="G6">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="H6">
-        <v>353</v>
+        <v>499</v>
       </c>
       <c r="I6">
-        <f>G6-F6</f>
-        <v>157</v>
+        <f t="shared" si="0"/>
+        <v>230</v>
       </c>
       <c r="J6">
-        <f>H6-G6</f>
-        <v>157</v>
+        <f t="shared" si="0"/>
+        <v>230</v>
       </c>
       <c r="K6" s="1">
-        <f>I6/B6</f>
-        <v>0.12208398133748057</v>
+        <f t="shared" si="1"/>
+        <v>0.12227538543328018</v>
       </c>
       <c r="L6">
         <v>690</v>
       </c>
+      <c r="M6">
+        <v>1091</v>
+      </c>
       <c r="N6">
-        <f>M6-L6</f>
-        <v>-690</v>
+        <f t="shared" si="2"/>
+        <v>401</v>
       </c>
       <c r="O6">
-        <f>C6-M6</f>
-        <v>1043</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="P6">
-        <f>C6-L6</f>
-        <v>353</v>
+        <f t="shared" si="4"/>
+        <v>438</v>
       </c>
       <c r="Q6">
-        <f>L6/C6</f>
-        <v>0.66155321188878236</v>
+        <f t="shared" si="5"/>
+        <v>0.61170212765957444</v>
       </c>
       <c r="R6">
-        <f>M6/C6</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.96719858156028371</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7">
-        <v>1881</v>
+        <v>1286</v>
       </c>
       <c r="C7">
-        <v>1128</v>
+        <v>1043</v>
       </c>
       <c r="F7">
         <v>39</v>
       </c>
       <c r="G7">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="H7">
-        <v>499</v>
+        <v>353</v>
       </c>
       <c r="I7">
         <f>G7-F7</f>
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="J7">
         <f>H7-G7</f>
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="K7" s="1">
         <f>I7/B7</f>
-        <v>0.12227538543328018</v>
+        <v>0.12208398133748057</v>
       </c>
       <c r="L7">
         <v>690</v>
       </c>
-      <c r="M7">
-        <v>1091</v>
-      </c>
       <c r="N7">
         <f>M7-L7</f>
-        <v>401</v>
+        <v>-690</v>
       </c>
       <c r="O7">
         <f>C7-M7</f>
-        <v>37</v>
+        <v>1043</v>
       </c>
       <c r="P7">
         <f>C7-L7</f>
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="Q7">
         <f>L7/C7</f>
-        <v>0.61170212765957444</v>
+        <v>0.66155321188878236</v>
       </c>
       <c r="R7">
         <f>M7/C7</f>
-        <v>0.96719858156028371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -1254,38 +1270,38 @@
         <v>253</v>
       </c>
       <c r="I8">
-        <f>G8-F8</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="J8">
-        <f>H8-G8</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="K8" s="1">
-        <f>I8/B8</f>
+        <f t="shared" si="1"/>
         <v>0.11915367483296214</v>
       </c>
       <c r="L8">
         <v>690</v>
       </c>
       <c r="N8">
-        <f>M8-L8</f>
+        <f t="shared" si="2"/>
         <v>-690</v>
       </c>
       <c r="O8">
-        <f>C8-M8</f>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="P8">
-        <f>C8-L8</f>
+        <f t="shared" si="4"/>
         <v>510</v>
       </c>
       <c r="Q8">
-        <f>L8/C8</f>
+        <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="R8">
-        <f>M8/C8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1311,20 +1327,29 @@
         <v>b-t</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15:I15" si="0">O1</f>
+        <f t="shared" ref="E15:H15" si="7">O1</f>
         <v>h-b</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>h-t</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>t/h</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>b/h</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:18">
@@ -1337,11 +1362,11 @@
         <v>142</v>
       </c>
       <c r="E16">
-        <f>O2</f>
+        <f t="shared" ref="E16:F19" si="8">O2</f>
         <v>24</v>
       </c>
       <c r="F16">
-        <f>P2</f>
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="G16">
@@ -1352,137 +1377,401 @@
         <f>R2*1000</f>
         <v>960.91205211726378</v>
       </c>
-    </row>
-    <row r="17" spans="3:8">
+      <c r="I16">
+        <f>C2</f>
+        <v>614</v>
+      </c>
+      <c r="J16">
+        <f>L2</f>
+        <v>448</v>
+      </c>
+      <c r="K16">
+        <f>M2</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="C17">
-        <f>C3</f>
+        <f t="shared" ref="C17:C22" si="9">C3</f>
         <v>832</v>
       </c>
       <c r="D17">
-        <f>N3</f>
+        <f t="shared" ref="D17:D22" si="10">N3</f>
         <v>137</v>
       </c>
       <c r="E17">
-        <f>O3</f>
+        <f t="shared" ref="E17:E22" si="11">O3</f>
         <v>29</v>
       </c>
       <c r="F17">
-        <f>P3</f>
+        <f t="shared" ref="F17:F22" si="12">P3</f>
         <v>166</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G22" si="1">Q3*1000</f>
+        <f t="shared" ref="G17:H17" si="13">Q3*1000</f>
         <v>800.48076923076928</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H22" si="2">R3*1000</f>
+        <f t="shared" si="13"/>
         <v>965.14423076923072</v>
       </c>
-    </row>
-    <row r="18" spans="3:8">
+      <c r="I17">
+        <f t="shared" ref="I17:I22" si="14">C3</f>
+        <v>832</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:K17" si="15">L3</f>
+        <v>666</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="15"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="C18">
-        <f>C4</f>
+        <f t="shared" si="9"/>
         <v>884</v>
       </c>
       <c r="D18">
-        <f>N4</f>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
       <c r="E18">
-        <f>O4</f>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="F18">
-        <f>P4</f>
+        <f t="shared" si="12"/>
         <v>195</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G18:H18" si="16">Q4*1000</f>
         <v>779.41176470588232</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>964.9321266968326</v>
       </c>
-    </row>
-    <row r="19" spans="3:8">
+      <c r="I18">
+        <f t="shared" si="14"/>
+        <v>884</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="17">L4</f>
+        <v>689</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="17"/>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="C19">
-        <f>C5</f>
+        <f t="shared" si="9"/>
         <v>946</v>
       </c>
       <c r="D19">
-        <f>N5</f>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="E19">
-        <f>O5</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F19">
-        <f>P5</f>
+        <f t="shared" si="12"/>
         <v>257</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G19:H19" si="18">Q5*1000</f>
         <v>728.32980972515861</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>966.17336152219866</v>
       </c>
-    </row>
-    <row r="20" spans="3:8">
+      <c r="I19">
+        <f t="shared" si="14"/>
+        <v>946</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:K19" si="19">L5</f>
+        <v>689</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="19"/>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="C20">
-        <f>C6</f>
+        <f t="shared" si="9"/>
+        <v>1128</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="10"/>
+        <v>401</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="12"/>
+        <v>438</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:H20" si="20">Q6*1000</f>
+        <v>611.70212765957444</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="20"/>
+        <v>967.19858156028374</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="14"/>
+        <v>1128</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:K20" si="21">L6</f>
+        <v>690</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="21"/>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="C21">
+        <f t="shared" si="9"/>
         <v>1043</v>
       </c>
-      <c r="F20">
-        <f>P6</f>
+      <c r="F21">
+        <f t="shared" si="12"/>
         <v>353</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
+      <c r="G21">
+        <f t="shared" ref="G21:H21" si="22">Q7*1000</f>
         <v>661.55321188878236</v>
       </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21">
-        <f>C7</f>
-        <v>1128</v>
-      </c>
-      <c r="D21">
-        <f>N7</f>
-        <v>401</v>
-      </c>
-      <c r="E21">
-        <f>O7</f>
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <f>P7</f>
-        <v>438</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>611.70212765957444</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>967.19858156028374</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
+      <c r="I21">
+        <f t="shared" si="14"/>
+        <v>1043</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:K21" si="23">L7</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="C22">
-        <f>C8</f>
+        <f t="shared" si="9"/>
         <v>1200</v>
       </c>
       <c r="F22">
-        <f>P8</f>
+        <f t="shared" si="12"/>
         <v>510</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G22:H22" si="24">Q8*1000</f>
         <v>575</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="14"/>
+        <v>1200</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:K22" si="25">L8</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>94</v>
+      </c>
+      <c r="H25">
+        <v>577</v>
+      </c>
+      <c r="K25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26">
+        <v>208</v>
+      </c>
+      <c r="C26">
+        <f>B26-B25</f>
+        <v>157</v>
+      </c>
+      <c r="E26">
+        <v>251</v>
+      </c>
+      <c r="F26">
+        <f>E26-E25</f>
+        <v>157</v>
+      </c>
+      <c r="H26">
+        <v>602</v>
+      </c>
+      <c r="I26">
+        <f>H26-H25</f>
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>242</v>
+      </c>
+      <c r="L26">
+        <f>K26-K25</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27">
+        <v>365</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C30" si="26">B27-B26</f>
+        <v>157</v>
+      </c>
+      <c r="E27">
+        <v>408</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F28" si="27">E27-E26</f>
+        <v>157</v>
+      </c>
+      <c r="H27">
+        <v>629</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I32" si="28">H27-H26</f>
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>399</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L32" si="29">K27-K26</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28">
+        <v>522</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="26"/>
+        <v>157</v>
+      </c>
+      <c r="E28">
+        <v>566</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="27"/>
+        <v>158</v>
+      </c>
+      <c r="H28">
+        <v>654</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="28"/>
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>556</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="29"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29">
+        <v>679</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="26"/>
+        <v>157</v>
+      </c>
+      <c r="H29">
+        <v>680</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="28"/>
+        <v>26</v>
+      </c>
+      <c r="K29">
+        <v>712</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="29"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30">
+        <v>836</v>
+      </c>
+      <c r="C30">
+        <f>B30-B29</f>
+        <v>157</v>
+      </c>
+      <c r="H30">
+        <v>706</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="28"/>
+        <v>26</v>
+      </c>
+      <c r="K30">
+        <v>870</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="29"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="H31">
+        <v>733</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="28"/>
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <v>1027</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="29"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="H32">
+        <v>758</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="28"/>
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>1184</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="29"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33">
+        <f>AVERAGE(I26:I32)</f>
+        <v>25.857142857142858</v>
       </c>
     </row>
   </sheetData>
